--- a/CAL_proj1/Cal_Graph.xlsx
+++ b/CAL_proj1/Cal_Graph.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Mendes\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse\CAL\CAL_proj1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="0" windowWidth="16020" windowHeight="4090"/>
+    <workbookView xWindow="1875" yWindow="0" windowWidth="16020" windowHeight="4095"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>map3 3000 nodes</t>
   </si>
@@ -78,6 +78,48 @@
   </si>
   <si>
     <t>8.007 ms</t>
+  </si>
+  <si>
+    <t>PC FEUP</t>
+  </si>
+  <si>
+    <t>PC João</t>
+  </si>
+  <si>
+    <t>5.012 ms</t>
+  </si>
+  <si>
+    <t>5.0143 ms</t>
+  </si>
+  <si>
+    <t>5.0023 ms</t>
+  </si>
+  <si>
+    <t>2.4898 ms</t>
+  </si>
+  <si>
+    <t>2.9886 ms</t>
+  </si>
+  <si>
+    <t>0.9995 ms</t>
+  </si>
+  <si>
+    <t>1.4882 ms</t>
+  </si>
+  <si>
+    <t>0.989 ms</t>
+  </si>
+  <si>
+    <t>0.9898 ms</t>
+  </si>
+  <si>
+    <t>5.0031 ms</t>
+  </si>
+  <si>
+    <t>6.0159 ms</t>
+  </si>
+  <si>
+    <t>6.0187 ms</t>
   </si>
 </sst>
 </file>
@@ -93,12 +135,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,8 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,25 +478,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -470,7 +522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -490,7 +542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -505,6 +557,67 @@
       </c>
       <c r="E3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/CAL_proj1/Cal_Graph.xlsx
+++ b/CAL_proj1/Cal_Graph.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse\CAL\CAL_proj1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="0" windowWidth="16020" windowHeight="4095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="4200"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>map3 3000 nodes</t>
   </si>
@@ -120,6 +116,15 @@
   </si>
   <si>
     <t>6.0187 ms</t>
+  </si>
+  <si>
+    <t>36 min load</t>
+  </si>
+  <si>
+    <t>15 min load</t>
+  </si>
+  <si>
+    <t>9 min load</t>
   </si>
 </sst>
 </file>
@@ -478,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,6 +625,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
